--- a/data/cubic_svm_results.xlsx
+++ b/data/cubic_svm_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.084051</v>
+        <v>0.08393200000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.010032</v>
+        <v>0.013824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01321</v>
+        <v>0.012618</v>
       </c>
       <c r="D2" t="n">
         <v>0.082417</v>
